--- a/Desgin/设计总表.xlsx
+++ b/Desgin/设计总表.xlsx
@@ -3184,11 +3184,11 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3392,11 +3392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165083776"/>
-        <c:axId val="167969152"/>
+        <c:axId val="167786368"/>
+        <c:axId val="167787904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165083776"/>
+        <c:axId val="167786368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,7 +3405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167969152"/>
+        <c:crossAx val="167787904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3413,7 +3413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167969152"/>
+        <c:axId val="167787904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,14 +3424,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165083776"/>
+        <c:crossAx val="167786368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4421,7 +4420,7 @@
       <c r="P8" s="24">
         <v>60</v>
       </c>
-      <c r="Q8" s="120">
+      <c r="Q8" s="119">
         <f>M12/24</f>
         <v>0.1337962962962963</v>
       </c>
@@ -4523,7 +4522,7 @@
       <c r="P9" s="24">
         <v>300</v>
       </c>
-      <c r="Q9" s="120"/>
+      <c r="Q9" s="119"/>
       <c r="R9" s="24"/>
       <c r="S9" s="30">
         <v>3</v>
@@ -4621,7 +4620,7 @@
       <c r="P10" s="24">
         <v>1200</v>
       </c>
-      <c r="Q10" s="120"/>
+      <c r="Q10" s="119"/>
       <c r="R10" s="24"/>
       <c r="S10" s="30">
         <v>4</v>
@@ -4719,7 +4718,7 @@
       <c r="P11" s="24">
         <v>3000</v>
       </c>
-      <c r="Q11" s="120"/>
+      <c r="Q11" s="119"/>
       <c r="R11" s="24"/>
       <c r="S11" s="30">
         <v>5</v>
@@ -4820,7 +4819,7 @@
       <c r="P12" s="24">
         <v>7000</v>
       </c>
-      <c r="Q12" s="120"/>
+      <c r="Q12" s="119"/>
       <c r="R12" s="24"/>
       <c r="X12" s="1">
         <v>11</v>
@@ -4906,7 +4905,7 @@
       <c r="P13" s="24">
         <v>60</v>
       </c>
-      <c r="Q13" s="120">
+      <c r="Q13" s="119">
         <f>M17/24</f>
         <v>0.1111111111111111</v>
       </c>
@@ -4996,7 +4995,7 @@
       <c r="P14" s="24">
         <v>360</v>
       </c>
-      <c r="Q14" s="120"/>
+      <c r="Q14" s="119"/>
       <c r="R14" s="24"/>
       <c r="S14" s="1" t="s">
         <v>129</v>
@@ -5090,7 +5089,7 @@
       <c r="P15" s="24">
         <v>1080</v>
       </c>
-      <c r="Q15" s="120"/>
+      <c r="Q15" s="119"/>
       <c r="R15" s="24"/>
       <c r="S15" s="1" t="s">
         <v>130</v>
@@ -5185,7 +5184,7 @@
         <f>45*60</f>
         <v>2700</v>
       </c>
-      <c r="Q16" s="120"/>
+      <c r="Q16" s="119"/>
       <c r="R16" s="24"/>
       <c r="S16" s="1" t="s">
         <v>131</v>
@@ -5284,7 +5283,7 @@
         <f>1.5*3600</f>
         <v>5400</v>
       </c>
-      <c r="Q17" s="120"/>
+      <c r="Q17" s="119"/>
       <c r="R17" s="24"/>
       <c r="S17" s="1" t="s">
         <v>132</v>
@@ -5380,7 +5379,7 @@
       <c r="P18" s="24">
         <v>90</v>
       </c>
-      <c r="Q18" s="120">
+      <c r="Q18" s="119">
         <f>M22/24</f>
         <v>0.11458333333333333</v>
       </c>
@@ -5470,7 +5469,7 @@
       <c r="P19" s="24">
         <v>360</v>
       </c>
-      <c r="Q19" s="120"/>
+      <c r="Q19" s="119"/>
       <c r="R19" s="24"/>
       <c r="S19" s="1" t="s">
         <v>134</v>
@@ -5564,7 +5563,7 @@
       <c r="P20" s="24">
         <v>1200</v>
       </c>
-      <c r="Q20" s="120"/>
+      <c r="Q20" s="119"/>
       <c r="R20" s="24"/>
       <c r="S20" s="1" t="s">
         <v>135</v>
@@ -5651,7 +5650,7 @@
       <c r="P21" s="24">
         <v>3000</v>
       </c>
-      <c r="Q21" s="120"/>
+      <c r="Q21" s="119"/>
       <c r="R21" s="24"/>
       <c r="S21" s="1" t="s">
         <v>136</v>
@@ -5742,7 +5741,7 @@
       <c r="P22" s="24">
         <v>5250</v>
       </c>
-      <c r="Q22" s="120"/>
+      <c r="Q22" s="119"/>
       <c r="R22" s="24"/>
       <c r="S22" s="1" t="s">
         <v>152</v>
@@ -5834,7 +5833,7 @@
       <c r="P23" s="24">
         <v>60</v>
       </c>
-      <c r="Q23" s="120">
+      <c r="Q23" s="119">
         <f>M27/24</f>
         <v>0.11423611111111111</v>
       </c>
@@ -5924,7 +5923,7 @@
       <c r="P24" s="24">
         <v>360</v>
       </c>
-      <c r="Q24" s="120"/>
+      <c r="Q24" s="119"/>
       <c r="R24" s="24"/>
       <c r="S24" s="1" t="s">
         <v>138</v>
@@ -6011,7 +6010,7 @@
       <c r="P25" s="24">
         <v>1200</v>
       </c>
-      <c r="Q25" s="120"/>
+      <c r="Q25" s="119"/>
       <c r="R25" s="24"/>
       <c r="X25" s="1">
         <v>24</v>
@@ -6095,7 +6094,7 @@
       <c r="P26" s="24">
         <v>3000</v>
       </c>
-      <c r="Q26" s="120"/>
+      <c r="Q26" s="119"/>
       <c r="R26" s="24"/>
       <c r="X26" s="1">
         <v>25</v>
@@ -6186,7 +6185,7 @@
       <c r="P27" s="24">
         <v>5250</v>
       </c>
-      <c r="Q27" s="120"/>
+      <c r="Q27" s="119"/>
       <c r="R27" s="24"/>
       <c r="X27" s="1">
         <v>26</v>
@@ -6270,7 +6269,7 @@
       <c r="P28" s="24">
         <v>45</v>
       </c>
-      <c r="Q28" s="120">
+      <c r="Q28" s="119">
         <f>M32/24</f>
         <v>0.10538194444444444</v>
       </c>
@@ -6350,7 +6349,7 @@
       <c r="P29" s="24">
         <v>360</v>
       </c>
-      <c r="Q29" s="120"/>
+      <c r="Q29" s="119"/>
       <c r="R29" s="24"/>
       <c r="X29" s="1">
         <v>28</v>
@@ -6427,7 +6426,7 @@
       <c r="P30" s="24">
         <v>900</v>
       </c>
-      <c r="Q30" s="120"/>
+      <c r="Q30" s="119"/>
       <c r="R30" s="24"/>
       <c r="X30" s="1">
         <v>29</v>
@@ -6504,7 +6503,7 @@
       <c r="P31" s="24">
         <v>1800</v>
       </c>
-      <c r="Q31" s="120"/>
+      <c r="Q31" s="119"/>
       <c r="R31" s="24"/>
       <c r="X31" s="1">
         <v>30</v>
@@ -6585,7 +6584,7 @@
       <c r="P32" s="24">
         <v>6000</v>
       </c>
-      <c r="Q32" s="120"/>
+      <c r="Q32" s="119"/>
       <c r="R32" s="24"/>
       <c r="X32" s="1">
         <v>31</v>
@@ -6662,7 +6661,7 @@
       <c r="P33" s="24">
         <v>30</v>
       </c>
-      <c r="Q33" s="120">
+      <c r="Q33" s="119">
         <v>1</v>
       </c>
       <c r="R33" s="24"/>
@@ -6739,7 +6738,7 @@
       <c r="P34" s="24">
         <v>300</v>
       </c>
-      <c r="Q34" s="120"/>
+      <c r="Q34" s="119"/>
       <c r="R34" s="24"/>
       <c r="X34" s="1">
         <v>33</v>
@@ -6814,7 +6813,7 @@
       <c r="P35" s="24">
         <v>900</v>
       </c>
-      <c r="Q35" s="120"/>
+      <c r="Q35" s="119"/>
       <c r="R35" s="24"/>
       <c r="X35" s="1">
         <v>34</v>
@@ -6889,7 +6888,7 @@
       <c r="P36" s="24">
         <v>2700</v>
       </c>
-      <c r="Q36" s="120"/>
+      <c r="Q36" s="119"/>
       <c r="R36" s="24"/>
       <c r="X36" s="1">
         <v>35</v>
@@ -6964,7 +6963,7 @@
       <c r="P37" s="24">
         <v>6400</v>
       </c>
-      <c r="Q37" s="120"/>
+      <c r="Q37" s="119"/>
       <c r="R37" s="24"/>
       <c r="X37" s="1">
         <v>36</v>
@@ -7566,7 +7565,7 @@
       </c>
     </row>
     <row r="59" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="119" t="s">
+      <c r="A59" s="120" t="s">
         <v>26</v>
       </c>
       <c r="B59" s="36" t="s">
@@ -7638,7 +7637,7 @@
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A60" s="119"/>
+      <c r="A60" s="120"/>
       <c r="B60" s="36" t="s">
         <v>7</v>
       </c>
@@ -7734,7 +7733,7 @@
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A61" s="119"/>
+      <c r="A61" s="120"/>
       <c r="B61" s="36" t="s">
         <v>8</v>
       </c>
@@ -7830,7 +7829,7 @@
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A62" s="119"/>
+      <c r="A62" s="120"/>
       <c r="B62" s="8" t="s">
         <v>36</v>
       </c>
@@ -7900,7 +7899,7 @@
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A63" s="119"/>
+      <c r="A63" s="120"/>
       <c r="B63" s="8" t="s">
         <v>37</v>
       </c>
@@ -7970,7 +7969,7 @@
       </c>
     </row>
     <row r="64" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="119" t="s">
+      <c r="A64" s="120" t="s">
         <v>27</v>
       </c>
       <c r="B64" s="36" t="s">
@@ -8042,7 +8041,7 @@
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A65" s="119"/>
+      <c r="A65" s="120"/>
       <c r="B65" s="36" t="s">
         <v>7</v>
       </c>
@@ -8129,7 +8128,7 @@
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A66" s="119"/>
+      <c r="A66" s="120"/>
       <c r="B66" s="36" t="s">
         <v>8</v>
       </c>
@@ -8216,7 +8215,7 @@
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A67" s="119"/>
+      <c r="A67" s="120"/>
       <c r="B67" s="8" t="s">
         <v>36</v>
       </c>
@@ -8283,7 +8282,7 @@
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A68" s="119"/>
+      <c r="A68" s="120"/>
       <c r="B68" s="8" t="s">
         <v>37</v>
       </c>
@@ -8350,7 +8349,7 @@
       </c>
     </row>
     <row r="69" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="119" t="s">
+      <c r="A69" s="120" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="36" t="s">
@@ -8422,7 +8421,7 @@
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A70" s="119"/>
+      <c r="A70" s="120"/>
       <c r="B70" s="36" t="s">
         <v>7</v>
       </c>
@@ -8509,7 +8508,7 @@
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A71" s="119"/>
+      <c r="A71" s="120"/>
       <c r="B71" s="36" t="s">
         <v>8</v>
       </c>
@@ -8596,7 +8595,7 @@
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A72" s="119"/>
+      <c r="A72" s="120"/>
       <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
@@ -8663,7 +8662,7 @@
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A73" s="119"/>
+      <c r="A73" s="120"/>
       <c r="B73" s="8" t="s">
         <v>37</v>
       </c>
@@ -8730,7 +8729,7 @@
       </c>
     </row>
     <row r="74" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="119" t="s">
+      <c r="A74" s="120" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="36" t="s">
@@ -8802,7 +8801,7 @@
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A75" s="119"/>
+      <c r="A75" s="120"/>
       <c r="B75" s="36" t="s">
         <v>7</v>
       </c>
@@ -8895,7 +8894,7 @@
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A76" s="119"/>
+      <c r="A76" s="120"/>
       <c r="B76" s="36" t="s">
         <v>8</v>
       </c>
@@ -8988,7 +8987,7 @@
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A77" s="119"/>
+      <c r="A77" s="120"/>
       <c r="B77" s="8" t="s">
         <v>36</v>
       </c>
@@ -9055,7 +9054,7 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A78" s="119"/>
+      <c r="A78" s="120"/>
       <c r="B78" s="8" t="s">
         <v>37</v>
       </c>
@@ -9122,7 +9121,7 @@
       </c>
     </row>
     <row r="79" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="119" t="s">
+      <c r="A79" s="120" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="36" t="s">
@@ -9194,7 +9193,7 @@
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A80" s="119"/>
+      <c r="A80" s="120"/>
       <c r="B80" s="36" t="s">
         <v>7</v>
       </c>
@@ -9287,7 +9286,7 @@
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A81" s="119"/>
+      <c r="A81" s="120"/>
       <c r="B81" s="36" t="s">
         <v>8</v>
       </c>
@@ -9380,7 +9379,7 @@
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A82" s="119"/>
+      <c r="A82" s="120"/>
       <c r="B82" s="8" t="s">
         <v>36</v>
       </c>
@@ -9447,7 +9446,7 @@
       </c>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A83" s="119"/>
+      <c r="A83" s="120"/>
       <c r="B83" s="8" t="s">
         <v>37</v>
       </c>
@@ -9514,7 +9513,7 @@
       </c>
     </row>
     <row r="84" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="119" t="s">
+      <c r="A84" s="120" t="s">
         <v>15</v>
       </c>
       <c r="B84" s="36" t="s">
@@ -9586,7 +9585,7 @@
       </c>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A85" s="119"/>
+      <c r="A85" s="120"/>
       <c r="B85" s="36" t="s">
         <v>7</v>
       </c>
@@ -9667,7 +9666,7 @@
       </c>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A86" s="119"/>
+      <c r="A86" s="120"/>
       <c r="B86" s="36" t="s">
         <v>8</v>
       </c>
@@ -9748,7 +9747,7 @@
       </c>
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A87" s="119"/>
+      <c r="A87" s="120"/>
       <c r="B87" s="8" t="s">
         <v>36</v>
       </c>
@@ -9809,7 +9808,7 @@
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A88" s="119"/>
+      <c r="A88" s="120"/>
       <c r="B88" s="8" t="s">
         <v>37</v>
       </c>
@@ -9870,7 +9869,7 @@
       </c>
     </row>
     <row r="89" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="119" t="s">
+      <c r="A89" s="120" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="36" t="s">
@@ -9936,7 +9935,7 @@
       </c>
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A90" s="119"/>
+      <c r="A90" s="120"/>
       <c r="B90" s="36" t="s">
         <v>7</v>
       </c>
@@ -10017,7 +10016,7 @@
       </c>
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A91" s="119"/>
+      <c r="A91" s="120"/>
       <c r="B91" s="36" t="s">
         <v>8</v>
       </c>
@@ -10059,7 +10058,7 @@
       <c r="AB91" s="76"/>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A92" s="119"/>
+      <c r="A92" s="120"/>
       <c r="B92" s="8" t="s">
         <v>36</v>
       </c>
@@ -10081,7 +10080,7 @@
       <c r="AB92" s="76"/>
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A93" s="119"/>
+      <c r="A93" s="120"/>
       <c r="B93" s="8" t="s">
         <v>37</v>
       </c>
@@ -10103,7 +10102,7 @@
       <c r="AB93" s="76"/>
     </row>
     <row r="94" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="119" t="s">
+      <c r="A94" s="120" t="s">
         <v>24</v>
       </c>
       <c r="B94" s="36" t="s">
@@ -10130,7 +10129,7 @@
       <c r="AB94" s="76"/>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A95" s="119"/>
+      <c r="A95" s="120"/>
       <c r="B95" s="36" t="s">
         <v>7</v>
       </c>
@@ -10172,7 +10171,7 @@
       <c r="AB95" s="76"/>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A96" s="119"/>
+      <c r="A96" s="120"/>
       <c r="B96" s="36" t="s">
         <v>8</v>
       </c>
@@ -10214,7 +10213,7 @@
       <c r="AB96" s="76"/>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A97" s="119"/>
+      <c r="A97" s="120"/>
       <c r="B97" s="8" t="s">
         <v>36</v>
       </c>
@@ -10236,7 +10235,7 @@
       <c r="AB97" s="76"/>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A98" s="119"/>
+      <c r="A98" s="120"/>
       <c r="B98" s="8" t="s">
         <v>37</v>
       </c>
@@ -10258,7 +10257,7 @@
       <c r="AB98" s="76"/>
     </row>
     <row r="99" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="119" t="s">
+      <c r="A99" s="120" t="s">
         <v>82</v>
       </c>
       <c r="B99" s="36" t="s">
@@ -10285,7 +10284,7 @@
       <c r="AB99" s="76"/>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A100" s="119"/>
+      <c r="A100" s="120"/>
       <c r="B100" s="36" t="s">
         <v>7</v>
       </c>
@@ -10327,7 +10326,7 @@
       <c r="AB100" s="76"/>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A101" s="119"/>
+      <c r="A101" s="120"/>
       <c r="B101" s="36" t="s">
         <v>8</v>
       </c>
@@ -10369,7 +10368,7 @@
       <c r="AB101" s="76"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A102" s="119"/>
+      <c r="A102" s="120"/>
       <c r="B102" s="8" t="s">
         <v>36</v>
       </c>
@@ -10391,7 +10390,7 @@
       <c r="AB102" s="76"/>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A103" s="119"/>
+      <c r="A103" s="120"/>
       <c r="B103" s="8" t="s">
         <v>37</v>
       </c>
@@ -10413,7 +10412,7 @@
       <c r="AB103" s="76"/>
     </row>
     <row r="104" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="119" t="s">
+      <c r="A104" s="120" t="s">
         <v>29</v>
       </c>
       <c r="B104" s="36" t="s">
@@ -10440,7 +10439,7 @@
       <c r="AB104" s="76"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A105" s="119"/>
+      <c r="A105" s="120"/>
       <c r="B105" s="36" t="s">
         <v>7</v>
       </c>
@@ -10488,7 +10487,7 @@
       <c r="AB105" s="76"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A106" s="119"/>
+      <c r="A106" s="120"/>
       <c r="B106" s="36" t="s">
         <v>8</v>
       </c>
@@ -10536,7 +10535,7 @@
       <c r="AB106" s="76"/>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A107" s="119"/>
+      <c r="A107" s="120"/>
       <c r="B107" s="8" t="s">
         <v>36</v>
       </c>
@@ -10558,7 +10557,7 @@
       <c r="AB107" s="76"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A108" s="119"/>
+      <c r="A108" s="120"/>
       <c r="B108" s="8" t="s">
         <v>37</v>
       </c>
@@ -10580,7 +10579,7 @@
       <c r="AB108" s="76"/>
     </row>
     <row r="109" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="119" t="s">
+      <c r="A109" s="120" t="s">
         <v>85</v>
       </c>
       <c r="B109" s="36" t="s">
@@ -10607,7 +10606,7 @@
       <c r="AB109" s="76"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A110" s="119"/>
+      <c r="A110" s="120"/>
       <c r="B110" s="36" t="s">
         <v>7</v>
       </c>
@@ -10649,7 +10648,7 @@
       <c r="AB110" s="76"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A111" s="119"/>
+      <c r="A111" s="120"/>
       <c r="B111" s="36" t="s">
         <v>8</v>
       </c>
@@ -10691,7 +10690,7 @@
       <c r="AB111" s="76"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A112" s="119"/>
+      <c r="A112" s="120"/>
       <c r="B112" s="8" t="s">
         <v>36</v>
       </c>
@@ -10713,7 +10712,7 @@
       <c r="AB112" s="76"/>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A113" s="119"/>
+      <c r="A113" s="120"/>
       <c r="B113" s="8" t="s">
         <v>37</v>
       </c>
@@ -10735,7 +10734,7 @@
       <c r="AB113" s="76"/>
     </row>
     <row r="114" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="119" t="s">
+      <c r="A114" s="120" t="s">
         <v>17</v>
       </c>
       <c r="B114" s="36" t="s">
@@ -10762,7 +10761,7 @@
       <c r="AB114" s="76"/>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A115" s="119"/>
+      <c r="A115" s="120"/>
       <c r="B115" s="36" t="s">
         <v>7</v>
       </c>
@@ -10804,7 +10803,7 @@
       <c r="AB115" s="76"/>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A116" s="119"/>
+      <c r="A116" s="120"/>
       <c r="B116" s="36" t="s">
         <v>8</v>
       </c>
@@ -10846,7 +10845,7 @@
       <c r="AB116" s="76"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A117" s="119"/>
+      <c r="A117" s="120"/>
       <c r="B117" s="8" t="s">
         <v>36</v>
       </c>
@@ -10868,7 +10867,7 @@
       <c r="AB117" s="76"/>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A118" s="119"/>
+      <c r="A118" s="120"/>
       <c r="B118" s="8" t="s">
         <v>37</v>
       </c>
@@ -10890,7 +10889,7 @@
       <c r="AB118" s="76"/>
     </row>
     <row r="119" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="119" t="s">
+      <c r="A119" s="120" t="s">
         <v>22</v>
       </c>
       <c r="B119" s="36" t="s">
@@ -10917,7 +10916,7 @@
       <c r="AB119" s="76"/>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A120" s="119"/>
+      <c r="A120" s="120"/>
       <c r="B120" s="36" t="s">
         <v>7</v>
       </c>
@@ -10959,7 +10958,7 @@
       <c r="AB120" s="76"/>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A121" s="119"/>
+      <c r="A121" s="120"/>
       <c r="B121" s="36" t="s">
         <v>8</v>
       </c>
@@ -11001,7 +11000,7 @@
       <c r="AB121" s="76"/>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A122" s="119"/>
+      <c r="A122" s="120"/>
       <c r="B122" s="8" t="s">
         <v>36</v>
       </c>
@@ -11023,7 +11022,7 @@
       <c r="AB122" s="76"/>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A123" s="119"/>
+      <c r="A123" s="120"/>
       <c r="B123" s="8" t="s">
         <v>37</v>
       </c>
@@ -11045,7 +11044,7 @@
       <c r="AB123" s="76"/>
     </row>
     <row r="124" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="119" t="s">
+      <c r="A124" s="120" t="s">
         <v>23</v>
       </c>
       <c r="B124" s="36" t="s">
@@ -11072,7 +11071,7 @@
       <c r="AB124" s="76"/>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A125" s="119"/>
+      <c r="A125" s="120"/>
       <c r="B125" s="36" t="s">
         <v>7</v>
       </c>
@@ -11114,7 +11113,7 @@
       <c r="AB125" s="76"/>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A126" s="119"/>
+      <c r="A126" s="120"/>
       <c r="B126" s="36" t="s">
         <v>8</v>
       </c>
@@ -11156,7 +11155,7 @@
       <c r="AB126" s="76"/>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A127" s="119"/>
+      <c r="A127" s="120"/>
       <c r="B127" s="8" t="s">
         <v>36</v>
       </c>
@@ -11178,7 +11177,7 @@
       <c r="AB127" s="76"/>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A128" s="119"/>
+      <c r="A128" s="120"/>
       <c r="B128" s="8" t="s">
         <v>37</v>
       </c>
@@ -11200,7 +11199,7 @@
       <c r="AB128" s="76"/>
     </row>
     <row r="129" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="119" t="s">
+      <c r="A129" s="120" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="36" t="s">
@@ -11227,7 +11226,7 @@
       <c r="AB129" s="76"/>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A130" s="119"/>
+      <c r="A130" s="120"/>
       <c r="B130" s="36" t="s">
         <v>7</v>
       </c>
@@ -11275,7 +11274,7 @@
       <c r="AB130" s="76"/>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A131" s="119"/>
+      <c r="A131" s="120"/>
       <c r="B131" s="36" t="s">
         <v>8</v>
       </c>
@@ -11323,7 +11322,7 @@
       <c r="AB131" s="76"/>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A132" s="119"/>
+      <c r="A132" s="120"/>
       <c r="B132" s="8" t="s">
         <v>36</v>
       </c>
@@ -11345,7 +11344,7 @@
       <c r="AB132" s="76"/>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A133" s="119"/>
+      <c r="A133" s="120"/>
       <c r="B133" s="8" t="s">
         <v>37</v>
       </c>
@@ -11371,6 +11370,21 @@
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="Q23:Q27"/>
+    <mergeCell ref="Q28:Q32"/>
+    <mergeCell ref="Q33:Q37"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
     <mergeCell ref="Q13:Q17"/>
     <mergeCell ref="A59:A63"/>
     <mergeCell ref="A64:A68"/>
@@ -11387,21 +11401,6 @@
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="Q8:Q12"/>
     <mergeCell ref="Q18:Q22"/>
-    <mergeCell ref="Q23:Q27"/>
-    <mergeCell ref="Q28:Q32"/>
-    <mergeCell ref="Q33:Q37"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11459,10 +11458,10 @@
       <c r="A2" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="120"/>
+      <c r="D2" s="119"/>
       <c r="G2" s="1" t="s">
         <v>301</v>
       </c>
@@ -11992,10 +11991,10 @@
       <c r="P10" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="Q10" s="120" t="s">
+      <c r="Q10" s="119" t="s">
         <v>523</v>
       </c>
-      <c r="R10" s="120"/>
+      <c r="R10" s="119"/>
       <c r="S10" s="1" t="s">
         <v>347</v>
       </c>
@@ -12423,10 +12422,10 @@
       <c r="X16" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Y16" s="120" t="s">
+      <c r="Y16" s="119" t="s">
         <v>320</v>
       </c>
-      <c r="Z16" s="120"/>
+      <c r="Z16" s="119"/>
       <c r="AB16" s="1" t="s">
         <v>327</v>
       </c>
@@ -30428,8 +30427,8 @@
   <dimension ref="A1:AE138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11:L11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30642,7 +30641,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ref="B4:B6" si="0">C4*$B$2</f>
+        <f t="shared" ref="B4:B7" si="0">C4*$B$2</f>
         <v>100</v>
       </c>
       <c r="C4" s="3">
@@ -30884,6 +30883,13 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="111"/>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
